--- a/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\bw_methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68539233-991A-4269-854E-4FF1BCB2321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F2CE9-784C-4204-A454-6A332336870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$45</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -79,6 +82,15 @@
   </si>
   <si>
     <t>air::indoor</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil, resource correction</t>
   </si>
 </sst>
 </file>
@@ -405,17 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -558,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,6 +901,28 @@
       </c>
       <c r="C43">
         <v>8.0700000000000003E-11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>-2.6899999999999999E-11</v>
       </c>
     </row>
   </sheetData>

--- a/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\bw_methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68539233-991A-4269-854E-4FF1BCB2321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DBE52-6F71-4AEB-BAF5-C5D69529AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -79,6 +89,21 @@
   </si>
   <si>
     <t>air::indoor</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil, resource correction</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>air::unspecified</t>
   </si>
 </sst>
 </file>
@@ -102,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,9 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,17 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -557,8 +592,9 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" s="2">
+        <f>1*$C$2</f>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,8 +604,9 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C17" si="0">1*$C$2</f>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,8 +616,9 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,8 +628,9 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,8 +640,9 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6899999999999999E-11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,6 +929,90 @@
       </c>
       <c r="C43">
         <v>8.0700000000000003E-11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3">
+        <f>-1*$C$2</f>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3">
+        <f>-1*$C$2</f>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="3">
+        <f>11*$C$2</f>
+        <v>2.9589999999999998E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:C50" si="1">11*$C$2</f>
+        <v>2.9589999999999998E-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9589999999999998E-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9589999999999998E-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9589999999999998E-10</v>
       </c>
     </row>
   </sheetData>

--- a/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_AtmosphericCO2Concentration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DBE52-6F71-4AEB-BAF5-C5D69529AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628F3D4-88C9-43EB-B24E-E673DAAC9DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>air::unspecified</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, to soil or biomass stock</t>
+  </si>
+  <si>
+    <t>soil::agricultural</t>
+  </si>
+  <si>
+    <t>soil::forestry</t>
+  </si>
+  <si>
+    <t>soil::industrial</t>
+  </si>
+  <si>
+    <t>soil::unspecified</t>
   </si>
 </sst>
 </file>
@@ -127,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,13 +174,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,6 +1037,54 @@
         <v>2.9589999999999998E-10</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="4">
+        <f>-1*$C$2</f>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:C54" si="2">-1*$C$2</f>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.6899999999999999E-11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
